--- a/Priming/EnglishPractice.xlsx
+++ b/Priming/EnglishPractice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Desktop/CBSLDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/English1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E6EBF-CA7F-5B4F-A439-C711E8E4BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD168FF-0726-E24E-9021-1AE074FC3380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21100" yWindow="5300" windowWidth="27640" windowHeight="16940" xr2:uid="{43B6CD45-098E-AF4B-B33B-B71E69734815}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>schoolwork</t>
   </si>
@@ -100,10 +100,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>wrd</t>
-  </si>
-  <si>
-    <t>non</t>
+    <t>practice</t>
   </si>
 </sst>
 </file>
@@ -458,7 +455,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -526,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -537,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -570,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
